--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
@@ -330,7 +330,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
